--- a/Altissonis aptatis; Hin principes; Tonans.xlsx
+++ b/Altissonis aptatis; Hin principes; Tonans.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,11 +398,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>doloribus</t>
+          <t>laus</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>turpis</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -553,29 +553,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>felix</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
+          <t>tantus</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dura</t>
+          <t>doloribus</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -585,61 +593,193 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Donec</t>
+          <t>Total Average</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>Total Sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total Average</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Sum</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1</v>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>princeps</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentiment Difference</t>
+          <t>manus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>fera</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>durus</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>licet</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>grandis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>habeo</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dignus</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Donec</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>finis</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ictus</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sentiment Difference</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Sentiment Average Difference</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.6666666666666667</v>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
